--- a/Zadania - Analiza korelacji.xlsx
+++ b/Zadania - Analiza korelacji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="zad 1" sheetId="20" r:id="rId1"/>
@@ -2383,6 +2383,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29345</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="565150"/>
+          <a:ext cx="5515745" cy="2781688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -2672,7 +2715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -4054,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4099,6 +4142,7 @@
     <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Zadania - Analiza korelacji.xlsx
+++ b/Zadania - Analiza korelacji.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>LZ 872ES</t>
   </si>
@@ -371,6 +371,18 @@
   </si>
   <si>
     <t xml:space="preserve">Silniej skolerowana z liczby ludnosci jest liczba urodzen, ponieważ wartosc bezwzgledna dla r xy jest wyzsza </t>
+  </si>
+  <si>
+    <t>korelacja PKBper capita</t>
+  </si>
+  <si>
+    <t>eksportem</t>
+  </si>
+  <si>
+    <t>importem</t>
+  </si>
+  <si>
+    <t>lepiej skolerowane z PKBper capita import (korelacja dodatnia bardzo silna)</t>
   </si>
 </sst>
 </file>
@@ -4095,15 +4107,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1">
+    <row r="1" spans="1:15" ht="14.45" customHeight="1">
       <c r="A1" s="82" t="s">
         <v>83</v>
       </c>
@@ -4121,7 +4133,7 @@
       <c r="M1" s="82"/>
       <c r="N1" s="82"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -4136,6 +4148,38 @@
       <c r="L2" s="82"/>
       <c r="M2" s="82"/>
       <c r="N2" s="82"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="L5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="L6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="L7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Zadania - Analiza korelacji.xlsx
+++ b/Zadania - Analiza korelacji.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="zad 1" sheetId="20" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
   <si>
     <t>LZ 872ES</t>
   </si>
@@ -383,14 +383,159 @@
   </si>
   <si>
     <t>lepiej skolerowane z PKBper capita import (korelacja dodatnia bardzo silna)</t>
+  </si>
+  <si>
+    <t>Staż pracy (xi)</t>
+  </si>
+  <si>
+    <t>Poziom zadowolenia z pracy (yi)</t>
+  </si>
+  <si>
+    <t>przyczyna</t>
+  </si>
+  <si>
+    <t>Ranga X</t>
+  </si>
+  <si>
+    <t>Ranga Y</t>
+  </si>
+  <si>
+    <t>srednia artm</t>
+  </si>
+  <si>
+    <t>Dostepne rangi (xi):</t>
+  </si>
+  <si>
+    <t>di=Rx-Ry</t>
+  </si>
+  <si>
+    <t>di^2</t>
+  </si>
+  <si>
+    <t>suma di^2</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>ś</t>
+  </si>
+  <si>
+    <t>Tx=</t>
+  </si>
+  <si>
+    <t>Ty=</t>
+  </si>
+  <si>
+    <t>(n^3-n)/6</t>
+  </si>
+  <si>
+    <t>rs=</t>
+  </si>
+  <si>
+    <t>mian</t>
+  </si>
+  <si>
+    <t>licz</t>
+  </si>
+  <si>
+    <t>koleracja dodatnia o niskiej sile</t>
+  </si>
+  <si>
+    <t>Wartosć współczynnika oznacza, że wzrost stażu pracy jest na ogół powiązany ze wzrostem poziomu zadowolenia z pracy. Zależnosć ta jednak jest niska, a zatem sprawdza się jedynie u częsći pracowników.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Współczynnik korelacji rang spearmana </t>
+  </si>
+  <si>
+    <t>korelacja dodatnia o umiarkowanej sile/znacznej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wraz z wyższą oceną z historii uczeń na ogół ma też wyższą ocenę z zachowania </t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>współrzędne</t>
+  </si>
+  <si>
+    <t>n11</t>
+  </si>
+  <si>
+    <t>n12</t>
+  </si>
+  <si>
+    <t>n13</t>
+  </si>
+  <si>
+    <t>n21</t>
+  </si>
+  <si>
+    <t>n22</t>
+  </si>
+  <si>
+    <t>n23</t>
+  </si>
+  <si>
+    <t>n31</t>
+  </si>
+  <si>
+    <t>n32</t>
+  </si>
+  <si>
+    <t>n33</t>
+  </si>
+  <si>
+    <t>^nij</t>
+  </si>
+  <si>
+    <t>nij</t>
+  </si>
+  <si>
+    <t>nij-^nij</t>
+  </si>
+  <si>
+    <t>(nij-^nij)^2</t>
+  </si>
+  <si>
+    <t>(nij-^nij)^2/^nij</t>
+  </si>
+  <si>
+    <t>statystyka chi^2</t>
+  </si>
+  <si>
+    <t>Współczynnik C-pearsona</t>
+  </si>
+  <si>
+    <t>C=</t>
+  </si>
+  <si>
+    <t>C max=</t>
+  </si>
+  <si>
+    <t>w=</t>
+  </si>
+  <si>
+    <t>k=</t>
+  </si>
+  <si>
+    <t>C skor.=</t>
+  </si>
+  <si>
+    <t>Występuje korelacja dodatnia umiarkowana pomięd zyzawodem wykonywanym przez ojca, a zawodem syna.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -465,7 +610,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,8 +623,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1044,13 +1249,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1083,7 +1368,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
@@ -1194,31 +1478,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1237,63 +1500,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1302,7 +1508,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="49" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2438,6 +2775,173 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>584428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7354661" y="197303"/>
+          <a:ext cx="4877481" cy="2543530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>162485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>437264</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2078692" y="352985"/>
+          <a:ext cx="5687219" cy="2114845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16443</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5537200" y="342900"/>
+          <a:ext cx="4067743" cy="2076740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>448322</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>174985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="3727450"/>
+          <a:ext cx="4639322" cy="2581635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -2727,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -2749,18 +3253,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.45" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
       <c r="L2" t="s">
         <v>89</v>
       </c>
@@ -2769,128 +3273,128 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
       <c r="U3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.45" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
       <c r="U4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1">
       <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:21" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="68" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>2003</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="67">
         <v>2191172</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="67">
         <v>21261</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="67">
         <v>22807</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="75">
         <f>B10-$B$32</f>
         <v>58308.666666666511</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="76">
         <f>C10-$C$32</f>
         <v>1237.4761904761908</v>
       </c>
@@ -2898,37 +3402,37 @@
         <f>E10*F10</f>
         <v>72155586.698412523</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="76">
         <f>E10^2</f>
         <v>3399900608.4444265</v>
       </c>
-      <c r="I10" s="103">
+      <c r="I10" s="76">
         <f>F10^2</f>
         <v>1531347.3219954658</v>
       </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="60">
+      <c r="A11" s="59">
         <v>2004</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="67">
         <v>2185156</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="67">
         <v>20794</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="67">
         <v>22797</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="75">
         <f t="shared" ref="E11:E30" si="0">B11-$B$32</f>
         <v>52292.666666666511</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="76">
         <f t="shared" ref="F11:F30" si="1">C11-$C$32</f>
         <v>770.47619047619082</v>
       </c>
@@ -2936,33 +3440,33 @@
         <f t="shared" ref="G11:G30" si="2">E11*F11</f>
         <v>40290254.6031745</v>
       </c>
-      <c r="H11" s="103">
+      <c r="H11" s="76">
         <f t="shared" ref="H11:I30" si="3">E11^2</f>
         <v>2734522987.111095</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="76">
         <f t="shared" si="3"/>
         <v>593633.56009070342</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="60">
+      <c r="A12" s="59">
         <v>2005</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="67">
         <v>2179611</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="67">
         <v>21346</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="67">
         <v>23182</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="75">
         <f t="shared" si="0"/>
         <v>46747.666666666511</v>
       </c>
-      <c r="F12" s="103">
+      <c r="F12" s="76">
         <f t="shared" si="1"/>
         <v>1322.4761904761908</v>
       </c>
@@ -2970,33 +3474,33 @@
         <f t="shared" si="2"/>
         <v>61822676.126983941</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H12" s="76">
         <f t="shared" si="3"/>
         <v>2185344338.7777634</v>
       </c>
-      <c r="I12" s="103">
+      <c r="I12" s="76">
         <f t="shared" si="3"/>
         <v>1748943.2743764182</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="60">
+      <c r="A13" s="59">
         <v>2006</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="67">
         <v>2172766</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="67">
         <v>21496</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="67">
         <v>22678</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="75">
         <f t="shared" si="0"/>
         <v>39902.666666666511</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="76">
         <f t="shared" si="1"/>
         <v>1472.4761904761908</v>
       </c>
@@ -3004,33 +3508,33 @@
         <f t="shared" si="2"/>
         <v>58755726.603174388</v>
       </c>
-      <c r="H13" s="103">
+      <c r="H13" s="76">
         <f t="shared" si="3"/>
         <v>1592222807.1110988</v>
       </c>
-      <c r="I13" s="103">
+      <c r="I13" s="76">
         <f t="shared" si="3"/>
         <v>2168186.1315192753</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="60">
+      <c r="A14" s="59">
         <v>2007</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="67">
         <v>2166213</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="67">
         <v>21795</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="67">
         <v>23323</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="75">
         <f t="shared" si="0"/>
         <v>33349.666666666511</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="76">
         <f t="shared" si="1"/>
         <v>1771.4761904761908</v>
       </c>
@@ -3038,33 +3542,33 @@
         <f t="shared" si="2"/>
         <v>59078140.460317194</v>
       </c>
-      <c r="H14" s="103">
+      <c r="H14" s="76">
         <f t="shared" si="3"/>
         <v>1112200266.7777674</v>
       </c>
-      <c r="I14" s="103">
+      <c r="I14" s="76">
         <f t="shared" si="3"/>
         <v>3138127.8934240374</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="60">
+      <c r="A15" s="59">
         <v>2008</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="67">
         <v>2161832</v>
       </c>
-      <c r="C15" s="75">
+      <c r="C15" s="67">
         <v>23009</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="67">
         <v>23428</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="75">
         <f t="shared" si="0"/>
         <v>28968.666666666511</v>
       </c>
-      <c r="F15" s="103">
+      <c r="F15" s="76">
         <f t="shared" si="1"/>
         <v>2985.4761904761908</v>
       </c>
@@ -3072,33 +3576,33 @@
         <f t="shared" si="2"/>
         <v>86485264.60317415</v>
       </c>
-      <c r="H15" s="103">
+      <c r="H15" s="76">
         <f t="shared" si="3"/>
         <v>839183648.44443548</v>
       </c>
-      <c r="I15" s="103">
+      <c r="I15" s="76">
         <f t="shared" si="3"/>
         <v>8913068.0839002281</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="60">
+      <c r="A16" s="59">
         <v>2009</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="67">
         <v>2157202</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="67">
         <v>22964</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="67">
         <v>23703</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="75">
         <f t="shared" si="0"/>
         <v>24338.666666666511</v>
       </c>
-      <c r="F16" s="103">
+      <c r="F16" s="76">
         <f t="shared" si="1"/>
         <v>2940.4761904761908</v>
       </c>
@@ -3106,33 +3610,33 @@
         <f t="shared" si="2"/>
         <v>71567269.841269389</v>
       </c>
-      <c r="H16" s="103">
+      <c r="H16" s="76">
         <f t="shared" si="3"/>
         <v>592370695.11110353</v>
       </c>
-      <c r="I16" s="103">
+      <c r="I16" s="76">
         <f t="shared" si="3"/>
         <v>8646400.2267573718</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="60">
+      <c r="A17" s="59">
         <v>2010</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="67">
         <v>2178611</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="67">
         <v>22635</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="67">
         <v>23037</v>
       </c>
-      <c r="E17" s="102">
+      <c r="E17" s="75">
         <f t="shared" si="0"/>
         <v>45747.666666666511</v>
       </c>
-      <c r="F17" s="103">
+      <c r="F17" s="76">
         <f t="shared" si="1"/>
         <v>2611.4761904761908</v>
       </c>
@@ -3140,33 +3644,33 @@
         <f t="shared" si="2"/>
         <v>119468942.26984088</v>
       </c>
-      <c r="H17" s="103">
+      <c r="H17" s="76">
         <f t="shared" si="3"/>
         <v>2092849005.4444304</v>
       </c>
-      <c r="I17" s="103">
+      <c r="I17" s="76">
         <f t="shared" si="3"/>
         <v>6819807.8934240378</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="60">
+      <c r="A18" s="59">
         <v>2011</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="67">
         <v>2171857</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="67">
         <v>21363</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="67">
         <v>22981</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="75">
         <f t="shared" si="0"/>
         <v>38993.666666666511</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F18" s="76">
         <f t="shared" si="1"/>
         <v>1339.4761904761908</v>
       </c>
@@ -3174,33 +3678,33 @@
         <f t="shared" si="2"/>
         <v>52231088.079364888</v>
       </c>
-      <c r="H18" s="103">
+      <c r="H18" s="76">
         <f t="shared" si="3"/>
         <v>1520506040.111099</v>
       </c>
-      <c r="I18" s="103">
+      <c r="I18" s="76">
         <f t="shared" si="3"/>
         <v>1794196.4648526087</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="60">
+      <c r="A19" s="59">
         <v>2012</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="67">
         <v>2165651</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="67">
         <v>21214</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="67">
         <v>22562</v>
       </c>
-      <c r="E19" s="102">
+      <c r="E19" s="75">
         <f t="shared" si="0"/>
         <v>32787.666666666511</v>
       </c>
-      <c r="F19" s="103">
+      <c r="F19" s="76">
         <f t="shared" si="1"/>
         <v>1190.4761904761908</v>
       </c>
@@ -3208,33 +3712,33 @@
         <f t="shared" si="2"/>
         <v>39032936.507936336</v>
       </c>
-      <c r="H19" s="103">
+      <c r="H19" s="76">
         <f t="shared" si="3"/>
         <v>1075031085.4444342</v>
       </c>
-      <c r="I19" s="103">
+      <c r="I19" s="76">
         <f t="shared" si="3"/>
         <v>1417233.5600907037</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="60">
+      <c r="A20" s="59">
         <v>2013</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="67">
         <v>2156150</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="67">
         <v>19738</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="67">
         <v>22849</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="75">
         <f t="shared" si="0"/>
         <v>23286.666666666511</v>
       </c>
-      <c r="F20" s="103">
+      <c r="F20" s="76">
         <f t="shared" si="1"/>
         <v>-285.52380952380918</v>
       </c>
@@ -3242,33 +3746,33 @@
         <f t="shared" si="2"/>
         <v>-6648897.7777777258</v>
       </c>
-      <c r="H20" s="103">
+      <c r="H20" s="76">
         <f t="shared" si="3"/>
         <v>542268844.44443727</v>
       </c>
-      <c r="I20" s="103">
+      <c r="I20" s="76">
         <f t="shared" si="3"/>
         <v>81523.845804988465</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="60">
+      <c r="A21" s="59">
         <v>2014</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="67">
         <v>2147746</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="67">
         <v>19828</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="67">
         <v>22107</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="75">
         <f t="shared" si="0"/>
         <v>14882.666666666511</v>
       </c>
-      <c r="F21" s="103">
+      <c r="F21" s="76">
         <f t="shared" si="1"/>
         <v>-195.52380952380918</v>
       </c>
@@ -3276,33 +3780,33 @@
         <f t="shared" si="2"/>
         <v>-2909915.682539647</v>
       </c>
-      <c r="H21" s="103">
+      <c r="H21" s="76">
         <f t="shared" si="3"/>
         <v>221493767.11110649</v>
       </c>
-      <c r="I21" s="103">
+      <c r="I21" s="76">
         <f t="shared" si="3"/>
         <v>38229.560090702813</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="60">
+      <c r="A22" s="59">
         <v>2015</v>
       </c>
-      <c r="B22" s="75">
+      <c r="B22" s="67">
         <v>2139726</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="67">
         <v>19715</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="67">
         <v>22816</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="75">
         <f t="shared" si="0"/>
         <v>6862.6666666665114</v>
       </c>
-      <c r="F22" s="103">
+      <c r="F22" s="76">
         <f t="shared" si="1"/>
         <v>-308.52380952380918</v>
       </c>
@@ -3310,33 +3814,33 @@
         <f t="shared" si="2"/>
         <v>-2117296.0634920131</v>
       </c>
-      <c r="H22" s="103">
+      <c r="H22" s="76">
         <f t="shared" si="3"/>
         <v>47096193.777775645</v>
       </c>
-      <c r="I22" s="103">
+      <c r="I22" s="76">
         <f t="shared" si="3"/>
         <v>95186.941043083687</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="60">
+      <c r="A23" s="59">
         <v>2016</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="67">
         <v>2133340</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="67">
         <v>19666</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="67">
         <v>22284</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="75">
         <f t="shared" si="0"/>
         <v>476.66666666651145</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F23" s="76">
         <f t="shared" si="1"/>
         <v>-357.52380952380918</v>
       </c>
@@ -3344,33 +3848,33 @@
         <f t="shared" si="2"/>
         <v>-170419.68253962687</v>
       </c>
-      <c r="H23" s="103">
+      <c r="H23" s="76">
         <f t="shared" si="3"/>
         <v>227211.11111096313</v>
       </c>
-      <c r="I23" s="103">
+      <c r="I23" s="76">
         <f t="shared" si="3"/>
         <v>127823.27437641699</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="60">
+      <c r="A24" s="59">
         <v>2017</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="67">
         <v>2126317</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="67">
         <v>20898</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="67">
         <v>23427</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="75">
         <f t="shared" si="0"/>
         <v>-6546.3333333334886</v>
       </c>
-      <c r="F24" s="103">
+      <c r="F24" s="76">
         <f t="shared" si="1"/>
         <v>874.47619047619082</v>
       </c>
@@ -3378,33 +3882,33 @@
         <f t="shared" si="2"/>
         <v>-5724612.6349207731</v>
       </c>
-      <c r="H24" s="103">
+      <c r="H24" s="76">
         <f t="shared" si="3"/>
         <v>42854480.111113146</v>
       </c>
-      <c r="I24" s="103">
+      <c r="I24" s="76">
         <f t="shared" si="3"/>
         <v>764708.60770975112</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="60">
+      <c r="A25" s="59">
         <v>2018</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="67">
         <v>2117619</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="67">
         <v>20101</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="67">
         <v>23682</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="75">
         <f t="shared" si="0"/>
         <v>-15244.333333333489</v>
       </c>
-      <c r="F25" s="103">
+      <c r="F25" s="76">
         <f t="shared" si="1"/>
         <v>77.476190476190823</v>
       </c>
@@ -3412,33 +3916,33 @@
         <f t="shared" si="2"/>
         <v>-1181072.8730158904</v>
       </c>
-      <c r="H25" s="103">
+      <c r="H25" s="76">
         <f t="shared" si="3"/>
         <v>232389698.7777825</v>
       </c>
-      <c r="I25" s="103">
+      <c r="I25" s="76">
         <f t="shared" si="3"/>
         <v>6002.5600907030012</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="60">
+      <c r="A26" s="59">
         <v>2019</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="67">
         <v>2108270</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="67">
         <v>19286</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="67">
         <v>23015</v>
       </c>
-      <c r="E26" s="102">
+      <c r="E26" s="75">
         <f t="shared" si="0"/>
         <v>-24593.333333333489</v>
       </c>
-      <c r="F26" s="103">
+      <c r="F26" s="76">
         <f t="shared" si="1"/>
         <v>-737.52380952380918</v>
       </c>
@@ -3446,33 +3950,33 @@
         <f t="shared" si="2"/>
         <v>18138168.888888996</v>
       </c>
-      <c r="H26" s="103">
+      <c r="H26" s="76">
         <f t="shared" si="3"/>
         <v>604832044.44445205</v>
       </c>
-      <c r="I26" s="103">
+      <c r="I26" s="76">
         <f t="shared" si="3"/>
         <v>543941.36961451196</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="60">
+      <c r="A27" s="59">
         <v>2020</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="67">
         <v>2056908</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="67">
         <v>18034</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="67">
         <v>27244</v>
       </c>
-      <c r="E27" s="102">
+      <c r="E27" s="75">
         <f t="shared" si="0"/>
         <v>-75955.333333333489</v>
       </c>
-      <c r="F27" s="103">
+      <c r="F27" s="76">
         <f t="shared" si="1"/>
         <v>-1989.5238095238092</v>
       </c>
@@ -3480,33 +3984,33 @@
         <f t="shared" si="2"/>
         <v>151114944.12698442</v>
       </c>
-      <c r="H27" s="103">
+      <c r="H27" s="76">
         <f t="shared" si="3"/>
         <v>5769212661.7778015</v>
       </c>
-      <c r="I27" s="103">
+      <c r="I27" s="76">
         <f t="shared" si="3"/>
         <v>3958204.9886621302</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="60">
+      <c r="A28" s="59">
         <v>2021</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="67">
         <v>2038299</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="67">
         <v>16641</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="67">
         <v>30617</v>
       </c>
-      <c r="E28" s="102">
+      <c r="E28" s="75">
         <f t="shared" si="0"/>
         <v>-94564.333333333489</v>
       </c>
-      <c r="F28" s="103">
+      <c r="F28" s="76">
         <f t="shared" si="1"/>
         <v>-3382.5238095238092</v>
       </c>
@@ -3514,33 +4018,33 @@
         <f t="shared" si="2"/>
         <v>319866109.03174651</v>
       </c>
-      <c r="H28" s="103">
+      <c r="H28" s="76">
         <f t="shared" si="3"/>
         <v>8942413138.7778072</v>
       </c>
-      <c r="I28" s="103">
+      <c r="I28" s="76">
         <f t="shared" si="3"/>
         <v>11441467.321995463</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="60">
+      <c r="A29" s="59">
         <v>2022</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="67">
         <v>2024637</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="67">
         <v>15218</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="67">
         <v>24924</v>
       </c>
-      <c r="E29" s="102">
+      <c r="E29" s="75">
         <f t="shared" si="0"/>
         <v>-108226.33333333349</v>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="76">
         <f t="shared" si="1"/>
         <v>-4805.5238095238092</v>
       </c>
@@ -3548,33 +4052,33 @@
         <f t="shared" si="2"/>
         <v>520084221.65079439</v>
       </c>
-      <c r="H29" s="103">
+      <c r="H29" s="76">
         <f t="shared" si="3"/>
         <v>11712939226.777811</v>
       </c>
-      <c r="I29" s="103">
+      <c r="I29" s="76">
         <f t="shared" si="3"/>
         <v>23093059.083900224</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A30" s="60">
+      <c r="A30" s="59">
         <v>2023</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="67">
         <v>2011047</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="67">
         <v>13492</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="67">
         <v>22910</v>
       </c>
-      <c r="E30" s="102">
+      <c r="E30" s="75">
         <f t="shared" si="0"/>
         <v>-121816.33333333349</v>
       </c>
-      <c r="F30" s="103">
+      <c r="F30" s="76">
         <f t="shared" si="1"/>
         <v>-6531.5238095238092</v>
       </c>
@@ -3582,55 +4086,55 @@
         <f t="shared" si="2"/>
         <v>795646281.55555654</v>
       </c>
-      <c r="H30" s="103">
+      <c r="H30" s="76">
         <f t="shared" si="3"/>
         <v>14839219066.777815</v>
       </c>
-      <c r="I30" s="103">
+      <c r="I30" s="76">
         <f t="shared" si="3"/>
         <v>42660803.274376415</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="79">
+      <c r="B31" s="71">
         <f>SUM(B10:B30)</f>
         <v>44790130</v>
       </c>
-      <c r="C31" s="79">
+      <c r="C31" s="71">
         <f>SUM(C10:C30)</f>
         <v>420494</v>
       </c>
-      <c r="D31" s="79">
+      <c r="D31" s="71">
         <f>SUM(D10:D30)</f>
         <v>496373</v>
       </c>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="79">
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="71">
         <f>SUM(G10:G30)</f>
         <v>2446985396.333334</v>
       </c>
-      <c r="H31" s="104">
+      <c r="H31" s="77">
         <f>SUM(H10:H30)</f>
         <v>60099077816.666664</v>
       </c>
-      <c r="I31" s="79">
+      <c r="I31" s="71">
         <f>SUM(I10:I30)</f>
         <v>119581895.23809525</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="101">
+      <c r="B32" s="74">
         <f>AVERAGE(B10:B30)</f>
         <v>2132863.3333333335</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="74">
         <f>AVERAGE(C10:C30)</f>
         <v>20023.523809523809</v>
       </c>
@@ -3639,10 +4143,10 @@
       <c r="A35" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="106" t="s">
+      <c r="D35" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="105">
+      <c r="E35" s="78">
         <f>G31/SQRT(H31*I31)</f>
         <v>0.91277714515949371</v>
       </c>
@@ -3693,7 +4197,7 @@
       <c r="A46" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="107">
+      <c r="B46" s="80">
         <f>B42/(B43*B44)</f>
         <v>0.9127771451594936</v>
       </c>
@@ -3710,7 +4214,7 @@
       <c r="C49" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="105">
+      <c r="D49" s="78">
         <f>PEARSON(B10:B30,C10:C30)</f>
         <v>0.9127771451594936</v>
       </c>
@@ -3729,7 +4233,7 @@
       <c r="A54" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="105">
+      <c r="B54" s="78">
         <f>PEARSON(B10:B30,D10:D30)</f>
         <v>-0.60105900255508382</v>
       </c>
@@ -3775,42 +4279,42 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1"/>
     <row r="3" spans="1:4">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="91"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="95"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>30</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>170</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>220</v>
       </c>
     </row>
@@ -3833,64 +4337,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B4" s="97"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="100"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="50">
         <v>140</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>250</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <v>40</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>170</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:5" ht="15">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3922,22 +4426,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3952,7 +4456,7 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="60" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="8"/>
@@ -4109,45 +4613,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15" ht="14.45" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
     </row>
     <row r="5" spans="1:15">
       <c r="L5" t="s">
@@ -4195,7 +4699,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4212,85 +4716,85 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1"/>
     <row r="4" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>2</v>
       </c>
     </row>
@@ -4301,190 +4805,658 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:21" ht="15" thickBot="1">
+      <c r="A2" s="57" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="63">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="108">
         <v>1</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="110">
         <v>8</v>
       </c>
-      <c r="G4" s="57"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="66">
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="102">
         <v>2</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="104">
         <v>2</v>
       </c>
-      <c r="G5" s="57"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="66">
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="102">
         <v>3</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="104">
         <v>4</v>
       </c>
-      <c r="G6" s="57"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="66">
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="102">
         <v>4</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="104">
         <v>6</v>
       </c>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="66">
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="102">
         <v>5</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="104">
         <v>2</v>
       </c>
-      <c r="G8" s="57"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="66">
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="102">
         <v>6</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="104">
         <v>1</v>
       </c>
-      <c r="G9" s="57"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="66">
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="102">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="104">
         <v>5</v>
       </c>
-      <c r="G10" s="57"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="66">
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="102">
         <v>8</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="104">
         <v>4</v>
       </c>
-      <c r="G11" s="57"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="66">
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="102">
         <v>9</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="104">
         <v>3</v>
       </c>
-      <c r="G12" s="57"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1">
-      <c r="A13" s="69">
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1">
+      <c r="A13" s="105">
         <v>10</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="107">
         <v>2</v>
       </c>
-      <c r="G13" s="57"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+      <c r="C15" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="29.25" thickBot="1">
+      <c r="A16" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="U16" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="62">
+        <v>6</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="63">
+        <v>1</v>
+      </c>
+      <c r="D17" s="63">
+        <v>1</v>
+      </c>
+      <c r="E17" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="63">
+        <f>D17-E17</f>
+        <v>-0.5</v>
+      </c>
+      <c r="G17" s="63">
+        <f>F17^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="1">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="113">
+        <v>1</v>
+      </c>
+      <c r="V17" s="118">
+        <v>1</v>
+      </c>
+      <c r="W17" s="57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="62">
+        <v>2</v>
+      </c>
+      <c r="B18" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="114">
+        <v>2</v>
+      </c>
+      <c r="D18" s="63">
+        <v>3</v>
+      </c>
+      <c r="E18" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="63">
+        <f t="shared" ref="F18:F26" si="0">D18-E18</f>
+        <v>1.5</v>
+      </c>
+      <c r="G18" s="63">
+        <f t="shared" ref="G18:G26" si="1">F18^2</f>
+        <v>2.25</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="115">
+        <v>2</v>
+      </c>
+      <c r="V18" s="118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="62">
+        <v>5</v>
+      </c>
+      <c r="B19" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="114">
+        <v>2</v>
+      </c>
+      <c r="D19" s="63">
+        <v>3</v>
+      </c>
+      <c r="E19" s="63">
+        <v>9</v>
+      </c>
+      <c r="F19" s="63">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="G19" s="63">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Q19" s="115">
+        <v>3</v>
+      </c>
+      <c r="R19" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="S19" s="1">
+        <v>9</v>
+      </c>
+      <c r="V19" s="119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="62">
+        <v>10</v>
+      </c>
+      <c r="B20" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="114">
+        <v>2</v>
+      </c>
+      <c r="D20" s="63">
+        <v>3</v>
+      </c>
+      <c r="E20" s="63">
+        <v>5</v>
+      </c>
+      <c r="F20" s="63">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="G20" s="63">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="115">
+        <v>4</v>
+      </c>
+      <c r="V20" s="119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="62">
+        <v>9</v>
+      </c>
+      <c r="B21" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="63">
+        <v>3</v>
+      </c>
+      <c r="D21" s="63">
+        <v>5</v>
+      </c>
+      <c r="E21" s="63">
+        <v>9</v>
+      </c>
+      <c r="F21" s="63">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="G21" s="63">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="1">
+        <f>((3^3-3)+(2^3-2))/12</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5</v>
+      </c>
+      <c r="V21" s="119">
+        <v>5</v>
+      </c>
+      <c r="W21" s="57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="62">
+        <v>3</v>
+      </c>
+      <c r="B22" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="116">
+        <v>4</v>
+      </c>
+      <c r="D22" s="63">
+        <v>6.5</v>
+      </c>
+      <c r="E22" s="63">
+        <v>5</v>
+      </c>
+      <c r="F22" s="63">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="63">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="J22" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="1">
+        <f>((2^3-2)+(5^3-5)+(3^3-3))/12</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q22" s="117">
+        <v>6</v>
+      </c>
+      <c r="R22" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="V22" s="119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="62">
+        <v>8</v>
+      </c>
+      <c r="B23" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="116">
+        <v>4</v>
+      </c>
+      <c r="D23" s="63">
+        <v>6.5</v>
+      </c>
+      <c r="E23" s="63">
+        <v>5</v>
+      </c>
+      <c r="F23" s="63">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G23" s="63">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="Q23" s="117">
+        <v>7</v>
+      </c>
+      <c r="V23" s="119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="62">
+        <v>7</v>
+      </c>
+      <c r="B24" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="63">
+        <v>5</v>
+      </c>
+      <c r="D24" s="63">
+        <v>8</v>
+      </c>
+      <c r="E24" s="63">
+        <v>9</v>
+      </c>
+      <c r="F24" s="63">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G24" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>8</v>
+      </c>
+      <c r="V24" s="121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="62">
+        <v>4</v>
+      </c>
+      <c r="B25" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="63">
+        <v>6</v>
+      </c>
+      <c r="D25" s="63">
+        <v>9</v>
+      </c>
+      <c r="E25" s="63">
+        <v>5</v>
+      </c>
+      <c r="F25" s="63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G25" s="63">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>9</v>
+      </c>
+      <c r="R25" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="V25" s="121">
+        <v>9</v>
+      </c>
+      <c r="W25" s="57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15" thickBot="1">
+      <c r="A26" s="111">
+        <v>1</v>
+      </c>
+      <c r="B26" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="112">
+        <v>8</v>
+      </c>
+      <c r="D26" s="112">
+        <v>10</v>
+      </c>
+      <c r="E26" s="112">
+        <v>5</v>
+      </c>
+      <c r="F26" s="112">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G26" s="112">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="M26" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" s="1">
+        <f>(K27-K21-K22-K17)</f>
+        <v>45</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>10</v>
+      </c>
+      <c r="V26" s="121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" thickBot="1">
+      <c r="G27" s="122">
+        <f>SUM(G17:G26)</f>
+        <v>105</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="1">
+        <f>(K18^3-K18)/6</f>
+        <v>165</v>
+      </c>
+      <c r="M27" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" s="1">
+        <f>SQRT((K27-2*K21)*(K27-2*K22))</f>
+        <v>149.66629547095766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="J28" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="1">
+        <f>(K27-K21-K22-K17)/SQRT((K27-2*K21)*(K27-2*K22))</f>
+        <v>0.30066889715147743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="K29" s="57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="K30" s="57" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4493,7 +5465,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4513,95 +5485,95 @@
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1"/>
     <row r="3" spans="1:5" ht="15">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B4" s="87"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>2</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>24</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>16</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>28</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>18</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>15</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>5</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="57" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4616,10 +5588,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4629,188 +5601,478 @@
     <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1"/>
-    <row r="4" spans="1:14">
-      <c r="B4" s="88" t="s">
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="B4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="B5" s="89"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="F5" s="131" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>30</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>15</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>45</v>
       </c>
-      <c r="I6" s="53"/>
+      <c r="F6" s="129">
+        <f>SUM(C6:E6)</f>
+        <v>90</v>
+      </c>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>20</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>40</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>10</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="F7" s="129">
+        <f t="shared" ref="F7:F8" si="0">SUM(C7:E7)</f>
+        <v>70</v>
+      </c>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="124">
         <v>10</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="125">
         <v>10</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="126">
         <v>70</v>
       </c>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="54"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="I10" s="53"/>
+      <c r="F8" s="130">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="B9" s="132" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="127">
+        <f>SUM(C6:C8)</f>
+        <v>60</v>
+      </c>
+      <c r="D9" s="127">
+        <f>SUM(D6:D8)</f>
+        <v>65</v>
+      </c>
+      <c r="E9" s="127">
+        <f>SUM(E6:E8)</f>
+        <v>125</v>
+      </c>
+      <c r="F9" s="128">
+        <f>SUM(C9:E9)</f>
+        <v>250</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="I11" s="53"/>
+      <c r="B11" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="133" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="I12" s="53"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="134" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="134">
+        <v>30</v>
+      </c>
+      <c r="D12" s="134">
+        <f>F6*C9/F9</f>
+        <v>21.6</v>
+      </c>
+      <c r="E12" s="134">
+        <f>C12-D12</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="F12" s="134">
+        <f>(E12)^2</f>
+        <v>70.559999999999974</v>
+      </c>
+      <c r="G12" s="134">
+        <f>(E12)^2/D12</f>
+        <v>3.2666666666666653</v>
+      </c>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="54"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="B13" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="134">
+        <v>15</v>
+      </c>
+      <c r="D13" s="134">
+        <f>F7*D9/F9</f>
+        <v>18.2</v>
+      </c>
+      <c r="E13" s="134">
+        <f t="shared" ref="E13:E20" si="1">C13-D13</f>
+        <v>-3.1999999999999993</v>
+      </c>
+      <c r="F13" s="134">
+        <f t="shared" ref="F13:F20" si="2">(E13)^2</f>
+        <v>10.239999999999995</v>
+      </c>
+      <c r="G13" s="134">
+        <f t="shared" ref="G13:G20" si="3">(E13)^2/D13</f>
+        <v>0.56263736263736241</v>
+      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="54"/>
-      <c r="I14" s="53"/>
+      <c r="B14" s="134" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="134">
+        <v>45</v>
+      </c>
+      <c r="D14" s="134">
+        <f>F8*E9/F9</f>
+        <v>45</v>
+      </c>
+      <c r="E14" s="134">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="134">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="54"/>
+      <c r="B15" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="134">
+        <v>20</v>
+      </c>
+      <c r="D15" s="134">
+        <f>F7*C9/F9</f>
+        <v>16.8</v>
+      </c>
+      <c r="E15" s="134">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="F15" s="134">
+        <f t="shared" si="2"/>
+        <v>10.239999999999995</v>
+      </c>
+      <c r="G15" s="134">
+        <f t="shared" si="3"/>
+        <v>0.60952380952380925</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="B16" s="134" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="134">
+        <v>40</v>
+      </c>
+      <c r="D16" s="134">
+        <f>F7*D9/F9</f>
+        <v>18.2</v>
+      </c>
+      <c r="E16" s="134">
+        <f t="shared" si="1"/>
+        <v>21.8</v>
+      </c>
+      <c r="F16" s="134">
+        <f t="shared" si="2"/>
+        <v>475.24</v>
+      </c>
+      <c r="G16" s="134">
+        <f t="shared" si="3"/>
+        <v>26.112087912087915</v>
+      </c>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="B17" s="134" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="134">
+        <v>10</v>
+      </c>
+      <c r="D17" s="134">
+        <f>F7*E9/F9</f>
+        <v>35</v>
+      </c>
+      <c r="E17" s="134">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+      <c r="F17" s="134">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="G17" s="134">
+        <f t="shared" si="3"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="L18" s="53"/>
+      <c r="B18" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="134">
+        <v>10</v>
+      </c>
+      <c r="D18" s="134">
+        <f>F8*C9/F9</f>
+        <v>21.6</v>
+      </c>
+      <c r="E18" s="134">
+        <f t="shared" si="1"/>
+        <v>-11.600000000000001</v>
+      </c>
+      <c r="F18" s="134">
+        <f t="shared" si="2"/>
+        <v>134.56000000000003</v>
+      </c>
+      <c r="G18" s="134">
+        <f t="shared" si="3"/>
+        <v>6.2296296296296303</v>
+      </c>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="54"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="54"/>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="54"/>
-      <c r="J21" s="54"/>
+      <c r="B19" s="134" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="134">
+        <v>10</v>
+      </c>
+      <c r="D19" s="134">
+        <f>F8*D9/F9</f>
+        <v>23.4</v>
+      </c>
+      <c r="E19" s="134">
+        <f t="shared" si="1"/>
+        <v>-13.399999999999999</v>
+      </c>
+      <c r="F19" s="134">
+        <f t="shared" si="2"/>
+        <v>179.55999999999997</v>
+      </c>
+      <c r="G19" s="134">
+        <f t="shared" si="3"/>
+        <v>7.6735042735042729</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15" thickBot="1">
+      <c r="B20" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="14">
+        <v>70</v>
+      </c>
+      <c r="D20" s="14">
+        <f>F8*E9/F9</f>
+        <v>45</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="3"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="2:12" ht="15" thickBot="1">
+      <c r="B21" s="53"/>
+      <c r="G21" s="122">
+        <f>SUM(G12:G20)</f>
+        <v>76.200081400081402</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="2:12" ht="15">
-      <c r="E22" s="53"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="E23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="E23" s="52"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="J24" s="54"/>
+      <c r="B24" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="53"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="1">
+        <f>SQRT(G21/(G21+F9))</f>
+        <v>0.48332102194577758</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="J26" s="54"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="J27" s="54"/>
+      <c r="B27" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="1">
+        <f>(SQRT((F24-1)/F24)+SQRT((F25-1)/F25))/2</f>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="J27" s="53"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="135">
+        <f>C25/C27</f>
+        <v>0.5919449428638327</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="57" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4819,6 +6081,7 @@
     <mergeCell ref="A1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Zadania - Analiza korelacji.xlsx
+++ b/Zadania - Analiza korelacji.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11A909F-13C8-47D6-9DDF-0A612A5AD74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="565" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zad 1" sheetId="20" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <sheet name="zad 10" sheetId="8" r:id="rId10"/>
     <sheet name="zad 11" sheetId="18" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="175">
   <si>
     <t>LZ 872ES</t>
   </si>
@@ -527,15 +517,48 @@
   </si>
   <si>
     <t>Występuje korelacja dodatnia umiarkowana pomięd zyzawodem wykonywanym przez ojca, a zawodem syna.</t>
+  </si>
+  <si>
+    <t>Stan komputera (yi)</t>
+  </si>
+  <si>
+    <t>Wiek komputera w latach(xi)</t>
+  </si>
+  <si>
+    <t>Tx</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>licznik</t>
+  </si>
+  <si>
+    <t>mianownik</t>
+  </si>
+  <si>
+    <t>n41</t>
+  </si>
+  <si>
+    <t>n42</t>
+  </si>
+  <si>
+    <t>n43</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>wystepuje korelacja dodatnia o wspolczynniku bardzo dobrym</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -610,7 +633,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,8 +706,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -933,19 +980,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1329,13 +1363,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1379,8 +1465,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1390,40 +1475,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1443,6 +1519,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,9 +1532,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1486,7 +1562,7 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1496,76 +1572,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1627,24 +1646,135 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="49" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="47" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="50" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1"/>
-    <cellStyle name="Normalny 3" xfId="2"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalny 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1699,7 +1829,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2676,7 +2805,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2714,7 +2849,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2749,7 +2890,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2792,7 +2939,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2835,7 +2988,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2865,20 +3024,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601264</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>16443</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171740</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>415301</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151EA334-1D8D-4D22-924B-AD716610800E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2891,8 +3056,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5537200" y="342900"/>
-          <a:ext cx="4067743" cy="2076740"/>
+          <a:off x="11364514" y="452436"/>
+          <a:ext cx="4064568" cy="2060865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>578418</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6276975" y="1158875"/>
+          <a:ext cx="4064568" cy="2060865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2903,20 +3117,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>448322</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>174985</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>372122</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>41635</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Obraz 3"/>
+        <xdr:cNvPr id="4" name="Obraz 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2929,8 +3149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7410450" y="3727450"/>
-          <a:ext cx="4639322" cy="2581635"/>
+          <a:off x="12811125" y="2105025"/>
+          <a:ext cx="4639322" cy="2546710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2943,9 +3163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2983,9 +3203,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3020,7 +3240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3055,7 +3275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3228,10 +3448,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -3253,18 +3473,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.45" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
       <c r="L2" t="s">
         <v>89</v>
       </c>
@@ -3273,128 +3493,128 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
       <c r="U3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.45" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
       <c r="U4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1">
       <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:21" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="64" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="59">
+      <c r="A10" s="55">
         <v>2003</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="63">
         <v>2191172</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="63">
         <v>21261</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="63">
         <v>22807</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="71">
         <f>B10-$B$32</f>
         <v>58308.666666666511</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="72">
         <f>C10-$C$32</f>
         <v>1237.4761904761908</v>
       </c>
@@ -3402,37 +3622,37 @@
         <f>E10*F10</f>
         <v>72155586.698412523</v>
       </c>
-      <c r="H10" s="76">
+      <c r="H10" s="72">
         <f>E10^2</f>
         <v>3399900608.4444265</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="72">
         <f>F10^2</f>
         <v>1531347.3219954658</v>
       </c>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="59">
+      <c r="A11" s="55">
         <v>2004</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="63">
         <v>2185156</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="63">
         <v>20794</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="63">
         <v>22797</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="71">
         <f t="shared" ref="E11:E30" si="0">B11-$B$32</f>
         <v>52292.666666666511</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="72">
         <f t="shared" ref="F11:F30" si="1">C11-$C$32</f>
         <v>770.47619047619082</v>
       </c>
@@ -3440,33 +3660,33 @@
         <f t="shared" ref="G11:G30" si="2">E11*F11</f>
         <v>40290254.6031745</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="72">
         <f t="shared" ref="H11:I30" si="3">E11^2</f>
         <v>2734522987.111095</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="72">
         <f t="shared" si="3"/>
         <v>593633.56009070342</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="59">
+      <c r="A12" s="55">
         <v>2005</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="63">
         <v>2179611</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="63">
         <v>21346</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="63">
         <v>23182</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="71">
         <f t="shared" si="0"/>
         <v>46747.666666666511</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="72">
         <f t="shared" si="1"/>
         <v>1322.4761904761908</v>
       </c>
@@ -3474,33 +3694,33 @@
         <f t="shared" si="2"/>
         <v>61822676.126983941</v>
       </c>
-      <c r="H12" s="76">
+      <c r="H12" s="72">
         <f t="shared" si="3"/>
         <v>2185344338.7777634</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="72">
         <f t="shared" si="3"/>
         <v>1748943.2743764182</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="59">
+      <c r="A13" s="55">
         <v>2006</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="63">
         <v>2172766</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="63">
         <v>21496</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="63">
         <v>22678</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="71">
         <f t="shared" si="0"/>
         <v>39902.666666666511</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="72">
         <f t="shared" si="1"/>
         <v>1472.4761904761908</v>
       </c>
@@ -3508,33 +3728,33 @@
         <f t="shared" si="2"/>
         <v>58755726.603174388</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="72">
         <f t="shared" si="3"/>
         <v>1592222807.1110988</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="72">
         <f t="shared" si="3"/>
         <v>2168186.1315192753</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="59">
+      <c r="A14" s="55">
         <v>2007</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="63">
         <v>2166213</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="63">
         <v>21795</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="63">
         <v>23323</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="71">
         <f t="shared" si="0"/>
         <v>33349.666666666511</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="72">
         <f t="shared" si="1"/>
         <v>1771.4761904761908</v>
       </c>
@@ -3542,33 +3762,33 @@
         <f t="shared" si="2"/>
         <v>59078140.460317194</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H14" s="72">
         <f t="shared" si="3"/>
         <v>1112200266.7777674</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="72">
         <f t="shared" si="3"/>
         <v>3138127.8934240374</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="59">
+      <c r="A15" s="55">
         <v>2008</v>
       </c>
-      <c r="B15" s="67">
+      <c r="B15" s="63">
         <v>2161832</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="63">
         <v>23009</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="63">
         <v>23428</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="71">
         <f t="shared" si="0"/>
         <v>28968.666666666511</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="72">
         <f t="shared" si="1"/>
         <v>2985.4761904761908</v>
       </c>
@@ -3576,33 +3796,33 @@
         <f t="shared" si="2"/>
         <v>86485264.60317415</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="72">
         <f t="shared" si="3"/>
         <v>839183648.44443548</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="72">
         <f t="shared" si="3"/>
         <v>8913068.0839002281</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="59">
+      <c r="A16" s="55">
         <v>2009</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="63">
         <v>2157202</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="63">
         <v>22964</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="63">
         <v>23703</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="71">
         <f t="shared" si="0"/>
         <v>24338.666666666511</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="72">
         <f t="shared" si="1"/>
         <v>2940.4761904761908</v>
       </c>
@@ -3610,33 +3830,33 @@
         <f t="shared" si="2"/>
         <v>71567269.841269389</v>
       </c>
-      <c r="H16" s="76">
+      <c r="H16" s="72">
         <f t="shared" si="3"/>
         <v>592370695.11110353</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="72">
         <f t="shared" si="3"/>
         <v>8646400.2267573718</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="59">
+      <c r="A17" s="55">
         <v>2010</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="63">
         <v>2178611</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="63">
         <v>22635</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="63">
         <v>23037</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="71">
         <f t="shared" si="0"/>
         <v>45747.666666666511</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="72">
         <f t="shared" si="1"/>
         <v>2611.4761904761908</v>
       </c>
@@ -3644,33 +3864,33 @@
         <f t="shared" si="2"/>
         <v>119468942.26984088</v>
       </c>
-      <c r="H17" s="76">
+      <c r="H17" s="72">
         <f t="shared" si="3"/>
         <v>2092849005.4444304</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="72">
         <f t="shared" si="3"/>
         <v>6819807.8934240378</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="59">
+      <c r="A18" s="55">
         <v>2011</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="63">
         <v>2171857</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="63">
         <v>21363</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="63">
         <v>22981</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="71">
         <f t="shared" si="0"/>
         <v>38993.666666666511</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="72">
         <f t="shared" si="1"/>
         <v>1339.4761904761908</v>
       </c>
@@ -3678,33 +3898,33 @@
         <f t="shared" si="2"/>
         <v>52231088.079364888</v>
       </c>
-      <c r="H18" s="76">
+      <c r="H18" s="72">
         <f t="shared" si="3"/>
         <v>1520506040.111099</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="72">
         <f t="shared" si="3"/>
         <v>1794196.4648526087</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="59">
+      <c r="A19" s="55">
         <v>2012</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="63">
         <v>2165651</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="63">
         <v>21214</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="63">
         <v>22562</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="71">
         <f t="shared" si="0"/>
         <v>32787.666666666511</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="72">
         <f t="shared" si="1"/>
         <v>1190.4761904761908</v>
       </c>
@@ -3712,33 +3932,33 @@
         <f t="shared" si="2"/>
         <v>39032936.507936336</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="72">
         <f t="shared" si="3"/>
         <v>1075031085.4444342</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="72">
         <f t="shared" si="3"/>
         <v>1417233.5600907037</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="59">
+      <c r="A20" s="55">
         <v>2013</v>
       </c>
-      <c r="B20" s="67">
+      <c r="B20" s="63">
         <v>2156150</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="63">
         <v>19738</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="63">
         <v>22849</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="71">
         <f t="shared" si="0"/>
         <v>23286.666666666511</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="72">
         <f t="shared" si="1"/>
         <v>-285.52380952380918</v>
       </c>
@@ -3746,33 +3966,33 @@
         <f t="shared" si="2"/>
         <v>-6648897.7777777258</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="72">
         <f t="shared" si="3"/>
         <v>542268844.44443727</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="72">
         <f t="shared" si="3"/>
         <v>81523.845804988465</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="59">
+      <c r="A21" s="55">
         <v>2014</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="63">
         <v>2147746</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="63">
         <v>19828</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="63">
         <v>22107</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="71">
         <f t="shared" si="0"/>
         <v>14882.666666666511</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="72">
         <f t="shared" si="1"/>
         <v>-195.52380952380918</v>
       </c>
@@ -3780,33 +4000,33 @@
         <f t="shared" si="2"/>
         <v>-2909915.682539647</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="72">
         <f t="shared" si="3"/>
         <v>221493767.11110649</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="72">
         <f t="shared" si="3"/>
         <v>38229.560090702813</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="59">
+      <c r="A22" s="55">
         <v>2015</v>
       </c>
-      <c r="B22" s="67">
+      <c r="B22" s="63">
         <v>2139726</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="63">
         <v>19715</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="63">
         <v>22816</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E22" s="71">
         <f t="shared" si="0"/>
         <v>6862.6666666665114</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="72">
         <f t="shared" si="1"/>
         <v>-308.52380952380918</v>
       </c>
@@ -3814,33 +4034,33 @@
         <f t="shared" si="2"/>
         <v>-2117296.0634920131</v>
       </c>
-      <c r="H22" s="76">
+      <c r="H22" s="72">
         <f t="shared" si="3"/>
         <v>47096193.777775645</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="72">
         <f t="shared" si="3"/>
         <v>95186.941043083687</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="59">
+      <c r="A23" s="55">
         <v>2016</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="63">
         <v>2133340</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="63">
         <v>19666</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="63">
         <v>22284</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="71">
         <f t="shared" si="0"/>
         <v>476.66666666651145</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="72">
         <f t="shared" si="1"/>
         <v>-357.52380952380918</v>
       </c>
@@ -3848,33 +4068,33 @@
         <f t="shared" si="2"/>
         <v>-170419.68253962687</v>
       </c>
-      <c r="H23" s="76">
+      <c r="H23" s="72">
         <f t="shared" si="3"/>
         <v>227211.11111096313</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="72">
         <f t="shared" si="3"/>
         <v>127823.27437641699</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="59">
+      <c r="A24" s="55">
         <v>2017</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="63">
         <v>2126317</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="63">
         <v>20898</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="63">
         <v>23427</v>
       </c>
-      <c r="E24" s="75">
+      <c r="E24" s="71">
         <f t="shared" si="0"/>
         <v>-6546.3333333334886</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="72">
         <f t="shared" si="1"/>
         <v>874.47619047619082</v>
       </c>
@@ -3882,33 +4102,33 @@
         <f t="shared" si="2"/>
         <v>-5724612.6349207731</v>
       </c>
-      <c r="H24" s="76">
+      <c r="H24" s="72">
         <f t="shared" si="3"/>
         <v>42854480.111113146</v>
       </c>
-      <c r="I24" s="76">
+      <c r="I24" s="72">
         <f t="shared" si="3"/>
         <v>764708.60770975112</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="59">
+      <c r="A25" s="55">
         <v>2018</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B25" s="63">
         <v>2117619</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="63">
         <v>20101</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="63">
         <v>23682</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="71">
         <f t="shared" si="0"/>
         <v>-15244.333333333489</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="72">
         <f t="shared" si="1"/>
         <v>77.476190476190823</v>
       </c>
@@ -3916,33 +4136,33 @@
         <f t="shared" si="2"/>
         <v>-1181072.8730158904</v>
       </c>
-      <c r="H25" s="76">
+      <c r="H25" s="72">
         <f t="shared" si="3"/>
         <v>232389698.7777825</v>
       </c>
-      <c r="I25" s="76">
+      <c r="I25" s="72">
         <f t="shared" si="3"/>
         <v>6002.5600907030012</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="59">
+      <c r="A26" s="55">
         <v>2019</v>
       </c>
-      <c r="B26" s="67">
+      <c r="B26" s="63">
         <v>2108270</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="63">
         <v>19286</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="63">
         <v>23015</v>
       </c>
-      <c r="E26" s="75">
+      <c r="E26" s="71">
         <f t="shared" si="0"/>
         <v>-24593.333333333489</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="72">
         <f t="shared" si="1"/>
         <v>-737.52380952380918</v>
       </c>
@@ -3950,33 +4170,33 @@
         <f t="shared" si="2"/>
         <v>18138168.888888996</v>
       </c>
-      <c r="H26" s="76">
+      <c r="H26" s="72">
         <f t="shared" si="3"/>
         <v>604832044.44445205</v>
       </c>
-      <c r="I26" s="76">
+      <c r="I26" s="72">
         <f t="shared" si="3"/>
         <v>543941.36961451196</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="59">
+      <c r="A27" s="55">
         <v>2020</v>
       </c>
-      <c r="B27" s="67">
+      <c r="B27" s="63">
         <v>2056908</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="63">
         <v>18034</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="63">
         <v>27244</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="71">
         <f t="shared" si="0"/>
         <v>-75955.333333333489</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="72">
         <f t="shared" si="1"/>
         <v>-1989.5238095238092</v>
       </c>
@@ -3984,33 +4204,33 @@
         <f t="shared" si="2"/>
         <v>151114944.12698442</v>
       </c>
-      <c r="H27" s="76">
+      <c r="H27" s="72">
         <f t="shared" si="3"/>
         <v>5769212661.7778015</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="72">
         <f t="shared" si="3"/>
         <v>3958204.9886621302</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="59">
+      <c r="A28" s="55">
         <v>2021</v>
       </c>
-      <c r="B28" s="67">
+      <c r="B28" s="63">
         <v>2038299</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="63">
         <v>16641</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="63">
         <v>30617</v>
       </c>
-      <c r="E28" s="75">
+      <c r="E28" s="71">
         <f t="shared" si="0"/>
         <v>-94564.333333333489</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="72">
         <f t="shared" si="1"/>
         <v>-3382.5238095238092</v>
       </c>
@@ -4018,33 +4238,33 @@
         <f t="shared" si="2"/>
         <v>319866109.03174651</v>
       </c>
-      <c r="H28" s="76">
+      <c r="H28" s="72">
         <f t="shared" si="3"/>
         <v>8942413138.7778072</v>
       </c>
-      <c r="I28" s="76">
+      <c r="I28" s="72">
         <f t="shared" si="3"/>
         <v>11441467.321995463</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="59">
+      <c r="A29" s="55">
         <v>2022</v>
       </c>
-      <c r="B29" s="67">
+      <c r="B29" s="63">
         <v>2024637</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="63">
         <v>15218</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="63">
         <v>24924</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="71">
         <f t="shared" si="0"/>
         <v>-108226.33333333349</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="72">
         <f t="shared" si="1"/>
         <v>-4805.5238095238092</v>
       </c>
@@ -4052,33 +4272,33 @@
         <f t="shared" si="2"/>
         <v>520084221.65079439</v>
       </c>
-      <c r="H29" s="76">
+      <c r="H29" s="72">
         <f t="shared" si="3"/>
         <v>11712939226.777811</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="72">
         <f t="shared" si="3"/>
         <v>23093059.083900224</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A30" s="59">
+      <c r="A30" s="55">
         <v>2023</v>
       </c>
-      <c r="B30" s="67">
+      <c r="B30" s="63">
         <v>2011047</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="63">
         <v>13492</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="63">
         <v>22910</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="71">
         <f t="shared" si="0"/>
         <v>-121816.33333333349</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="72">
         <f t="shared" si="1"/>
         <v>-6531.5238095238092</v>
       </c>
@@ -4086,55 +4306,55 @@
         <f t="shared" si="2"/>
         <v>795646281.55555654</v>
       </c>
-      <c r="H30" s="76">
+      <c r="H30" s="72">
         <f t="shared" si="3"/>
         <v>14839219066.777815</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="72">
         <f t="shared" si="3"/>
         <v>42660803.274376415</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="71">
+      <c r="B31" s="67">
         <f>SUM(B10:B30)</f>
         <v>44790130</v>
       </c>
-      <c r="C31" s="71">
+      <c r="C31" s="67">
         <f>SUM(C10:C30)</f>
         <v>420494</v>
       </c>
-      <c r="D31" s="71">
+      <c r="D31" s="67">
         <f>SUM(D10:D30)</f>
         <v>496373</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="71">
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="67">
         <f>SUM(G10:G30)</f>
         <v>2446985396.333334</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="73">
         <f>SUM(H10:H30)</f>
         <v>60099077816.666664</v>
       </c>
-      <c r="I31" s="71">
+      <c r="I31" s="67">
         <f>SUM(I10:I30)</f>
         <v>119581895.23809525</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="74">
+      <c r="B32" s="70">
         <f>AVERAGE(B10:B30)</f>
         <v>2132863.3333333335</v>
       </c>
-      <c r="C32" s="74">
+      <c r="C32" s="70">
         <f>AVERAGE(C10:C30)</f>
         <v>20023.523809523809</v>
       </c>
@@ -4143,10 +4363,10 @@
       <c r="A35" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="74">
         <f>G31/SQRT(H31*I31)</f>
         <v>0.91277714515949371</v>
       </c>
@@ -4197,7 +4417,7 @@
       <c r="A46" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="80">
+      <c r="B46" s="76">
         <f>B42/(B43*B44)</f>
         <v>0.9127771451594936</v>
       </c>
@@ -4214,7 +4434,7 @@
       <c r="C49" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="78">
+      <c r="D49" s="74">
         <f>PEARSON(B10:B30,C10:C30)</f>
         <v>0.9127771451594936</v>
       </c>
@@ -4233,7 +4453,7 @@
       <c r="A54" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="78">
+      <c r="B54" s="74">
         <f>PEARSON(B10:B30,D10:D30)</f>
         <v>-0.60105900255508382</v>
       </c>
@@ -4258,7 +4478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
@@ -4279,36 +4499,36 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1"/>
     <row r="3" spans="1:4">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="137"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="94"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="140"/>
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>30</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="15">
@@ -4328,7 +4548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -4337,64 +4557,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B4" s="96"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="145"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="46">
         <v>140</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="45">
         <v>250</v>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="43">
         <v>40</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="42">
         <v>170</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" ht="15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4407,7 +4627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4426,22 +4646,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="53" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4456,7 +4676,7 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="56" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="8"/>
@@ -4610,7 +4830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -4620,38 +4840,38 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15" ht="14.45" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
     </row>
     <row r="5" spans="1:15">
       <c r="L5" t="s">
@@ -4695,11 +4915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4707,95 +4927,375 @@
     <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="53" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1"/>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A4" s="39" t="s">
+    <row r="3" spans="1:21" ht="15" thickBot="1"/>
+    <row r="4" spans="1:21" ht="28.5" customHeight="1">
+      <c r="A4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:21">
+      <c r="A5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:21">
+      <c r="A8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:21">
+      <c r="A9" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:21" ht="15" thickBot="1">
+      <c r="A10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="27">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1"/>
+    <row r="13" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A13" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="127">
+        <v>1</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="113">
+        <v>5.5</v>
+      </c>
+      <c r="F14" s="31">
+        <f>D14-E14</f>
+        <v>-4</v>
+      </c>
+      <c r="G14" s="30">
+        <f>F14^2</f>
+        <v>16</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="1">
+        <v>6</v>
+      </c>
+      <c r="T14" s="123">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="120" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="127">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="113">
+        <v>4</v>
+      </c>
+      <c r="F15" s="31">
+        <f t="shared" ref="F15:F19" si="0">D15-E15</f>
+        <v>-2.5</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" ref="G15:G19" si="1">F15^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="1">
+        <v>56</v>
+      </c>
+      <c r="T15" s="124">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1">
+        <f>AVERAGE($T$15:$T$16)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="113">
+        <v>2</v>
+      </c>
+      <c r="D16" s="31">
+        <v>3</v>
+      </c>
+      <c r="E16" s="113">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="31">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="30">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="T16" s="124">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1">
+        <f>AVERAGE($T$15:$T$16)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="113">
+        <v>3</v>
+      </c>
+      <c r="D17" s="31">
+        <v>4</v>
+      </c>
+      <c r="E17" s="113">
+        <v>5.5</v>
+      </c>
+      <c r="F17" s="31">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="G17" s="30">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="1">
+        <f>(2^3-2)/12</f>
+        <v>0.5</v>
+      </c>
+      <c r="T17" s="125">
+        <v>4</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="31">
+        <v>4</v>
+      </c>
+      <c r="D18" s="31">
+        <v>5</v>
+      </c>
+      <c r="E18" s="113">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="31">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="30">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="1">
+        <f>((2^3-2)+(2^3-2))/12</f>
+        <v>1</v>
+      </c>
+      <c r="T18" s="126">
+        <v>5</v>
+      </c>
+      <c r="U18" s="1">
+        <f>AVERAGE($T$18:$T$19)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1">
+      <c r="A19" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="28">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28">
+        <v>6</v>
+      </c>
+      <c r="E19" s="114">
+        <v>1</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="T19" s="126">
+        <v>6</v>
+      </c>
+      <c r="U19" s="1">
+        <f>AVERAGE($T$18:$T$19)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1">
+      <c r="G20" s="99">
+        <f>SUM(G14:G19)</f>
+        <v>56</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="1">
+        <f>(K14^3-K14)/6</f>
+        <v>35</v>
+      </c>
+      <c r="M20" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="N20" s="1">
+        <f>K20-K17-K18-K15</f>
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="J21" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="1">
+        <f>N20/N21</f>
+        <v>-0.67171661327984866</v>
+      </c>
+      <c r="M21" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="N21" s="1">
+        <f>SQRT((K20-2*K17)*(K20-2*K18))</f>
+        <v>33.496268448888451</v>
       </c>
     </row>
   </sheetData>
@@ -4804,11 +5304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4829,146 +5329,146 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="108">
+      <c r="A4" s="85">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="110">
+      <c r="C4" s="87">
         <v>8</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="102">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="81">
         <v>2</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="102">
+      <c r="A6" s="79">
         <v>3</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="81">
         <v>4</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="102">
+      <c r="A7" s="79">
         <v>4</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="81">
         <v>6</v>
       </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="102">
+      <c r="A8" s="79">
         <v>5</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="81">
         <v>2</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="102">
+      <c r="A9" s="79">
         <v>6</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="81">
         <v>1</v>
       </c>
-      <c r="G9" s="56"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="102">
+      <c r="A10" s="79">
         <v>7</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="81">
         <v>5</v>
       </c>
-      <c r="G10" s="56"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="102">
+      <c r="A11" s="79">
         <v>8</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="81">
         <v>4</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="102">
+      <c r="A12" s="79">
         <v>9</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="81">
         <v>3</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1">
-      <c r="A13" s="105">
+      <c r="A13" s="82">
         <v>10</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="107">
+      <c r="C13" s="84">
         <v>2</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1">
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="53" t="s">
         <v>118</v>
       </c>
       <c r="J15" t="s">
@@ -4976,204 +5476,205 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="29.25" thickBot="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="P16" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="U16" s="57" t="s">
+      <c r="U16" s="53" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="62">
+    <row r="17" spans="1:25">
+      <c r="A17" s="58">
         <v>6</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="59">
         <v>1</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="59">
         <v>1</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="59">
         <v>1.5</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="59">
         <f>D17-E17</f>
         <v>-0.5</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="59">
         <f>F17^2</f>
         <v>0.25</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="53" t="s">
         <v>125</v>
       </c>
       <c r="K17" s="1">
         <v>105</v>
       </c>
-      <c r="Q17" s="113">
+      <c r="Q17" s="90">
         <v>1</v>
       </c>
-      <c r="V17" s="118">
+      <c r="V17" s="95">
         <v>1</v>
       </c>
-      <c r="W17" s="57" t="s">
+      <c r="W17" s="53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="62">
+    <row r="18" spans="1:25">
+      <c r="A18" s="58">
         <v>2</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="114">
+      <c r="C18" s="91">
         <v>2</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="59">
         <v>3</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="59">
         <v>1.5</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="59">
         <f t="shared" ref="F18:F26" si="0">D18-E18</f>
         <v>1.5</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="59">
         <f t="shared" ref="G18:G26" si="1">F18^2</f>
         <v>2.25</v>
       </c>
-      <c r="J18" s="57" t="s">
+      <c r="J18" s="53" t="s">
         <v>126</v>
       </c>
       <c r="K18" s="1">
         <v>10</v>
       </c>
-      <c r="Q18" s="115">
+      <c r="Q18" s="92">
         <v>2</v>
       </c>
-      <c r="V18" s="118">
+      <c r="V18" s="95">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="62">
+    <row r="19" spans="1:25">
+      <c r="A19" s="58">
         <v>5</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="114">
+      <c r="C19" s="91">
         <v>2</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="59">
         <v>3</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="59">
         <v>9</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="59">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="59">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="Q19" s="115">
+      <c r="Q19" s="92">
         <v>3</v>
       </c>
-      <c r="R19" s="57" t="s">
+      <c r="R19" s="53" t="s">
         <v>121</v>
       </c>
       <c r="S19" s="1">
-        <v>9</v>
-      </c>
-      <c r="V19" s="119">
+        <f>AVERAGE(Q18:Q20)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="62">
+      <c r="V19" s="96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="58">
         <v>10</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="114">
+      <c r="C20" s="91">
         <v>2</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="59">
         <v>3</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="59">
         <v>5</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="59">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="59">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Q20" s="115">
+      <c r="Q20" s="92">
         <v>4</v>
       </c>
-      <c r="V20" s="119">
+      <c r="V20" s="96">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="62">
+    <row r="21" spans="1:25">
+      <c r="A21" s="58">
         <v>9</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="59">
         <v>3</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="59">
         <v>5</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="59">
         <v>9</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="59">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="59">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="53" t="s">
         <v>128</v>
       </c>
       <c r="K21" s="1">
@@ -5183,178 +5684,186 @@
       <c r="Q21" s="1">
         <v>5</v>
       </c>
-      <c r="V21" s="119">
+      <c r="V21" s="96">
         <v>5</v>
       </c>
-      <c r="W21" s="57" t="s">
+      <c r="W21" s="53" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="62">
+    <row r="22" spans="1:25">
+      <c r="A22" s="58">
         <v>3</v>
       </c>
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="116">
+      <c r="C22" s="93">
         <v>4</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="59">
         <v>6.5</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="59">
         <v>5</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="59">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="59">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="53" t="s">
         <v>129</v>
       </c>
       <c r="K22" s="1">
         <f>((2^3-2)+(5^3-5)+(3^3-3))/12</f>
         <v>12.5</v>
       </c>
-      <c r="Q22" s="117">
+      <c r="Q22" s="94">
         <v>6</v>
       </c>
-      <c r="R22" s="57" t="s">
+      <c r="R22" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="V22" s="119">
+      <c r="S22" s="1">
+        <f>AVERAGE(Q22:Q23)</f>
+        <v>6.5</v>
+      </c>
+      <c r="V22" s="96">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="62">
+    <row r="23" spans="1:25">
+      <c r="A23" s="58">
         <v>8</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="116">
+      <c r="C23" s="93">
         <v>4</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="59">
         <v>6.5</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="59">
         <v>5</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="59">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="59">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
-      <c r="Q23" s="117">
+      <c r="Q23" s="94">
         <v>7</v>
       </c>
-      <c r="V23" s="119">
+      <c r="V23" s="96">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="62">
+    <row r="24" spans="1:25">
+      <c r="A24" s="58">
         <v>7</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="59">
         <v>5</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="59">
         <v>8</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="59">
         <v>9</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="59">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="59">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q24" s="1">
         <v>8</v>
       </c>
-      <c r="V24" s="121">
+      <c r="V24" s="98">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="62">
+    <row r="25" spans="1:25">
+      <c r="A25" s="58">
         <v>4</v>
       </c>
-      <c r="B25" s="119" t="s">
+      <c r="B25" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="59">
         <v>6</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="59">
         <v>9</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="59">
         <v>5</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="59">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="Q25" s="1">
         <v>9</v>
       </c>
-      <c r="R25" s="57" t="s">
+      <c r="R25" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="V25" s="121">
+      <c r="V25" s="98">
         <v>9</v>
       </c>
-      <c r="W25" s="57" t="s">
+      <c r="W25" s="53" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15" thickBot="1">
-      <c r="A26" s="111">
+      <c r="Y25" s="1">
+        <f>AVERAGE(V24:V26)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15" thickBot="1">
+      <c r="A26" s="88">
         <v>1</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="112">
+      <c r="C26" s="89">
         <v>8</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="89">
         <v>10</v>
       </c>
-      <c r="E26" s="112">
+      <c r="E26" s="89">
         <v>5</v>
       </c>
-      <c r="F26" s="112">
+      <c r="F26" s="89">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="112">
+      <c r="G26" s="89">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="M26" s="57" t="s">
+      <c r="M26" s="53" t="s">
         <v>133</v>
       </c>
       <c r="N26" s="1">
@@ -5364,23 +5873,23 @@
       <c r="Q26" s="1">
         <v>10</v>
       </c>
-      <c r="V26" s="121">
+      <c r="V26" s="98">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1">
-      <c r="G27" s="122">
+    <row r="27" spans="1:25" ht="15" thickBot="1">
+      <c r="G27" s="99">
         <f>SUM(G17:G26)</f>
         <v>105</v>
       </c>
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="53" t="s">
         <v>130</v>
       </c>
       <c r="K27" s="1">
         <f>(K18^3-K18)/6</f>
         <v>165</v>
       </c>
-      <c r="M27" s="57" t="s">
+      <c r="M27" s="53" t="s">
         <v>132</v>
       </c>
       <c r="N27" s="1">
@@ -5388,8 +5897,8 @@
         <v>149.66629547095766</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
-      <c r="J28" s="57" t="s">
+    <row r="28" spans="1:25">
+      <c r="J28" s="53" t="s">
         <v>131</v>
       </c>
       <c r="K28" s="1">
@@ -5397,13 +5906,13 @@
         <v>0.30066889715147743</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
-      <c r="K29" s="57" t="s">
+    <row r="29" spans="1:25">
+      <c r="K29" s="53" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
-      <c r="K30" s="57" t="s">
+    <row r="30" spans="1:25">
+      <c r="K30" s="53" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5414,7 +5923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
@@ -5461,11 +5970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -5475,106 +5984,498 @@
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1"/>
-    <row r="3" spans="1:5" ht="15">
-      <c r="B3" s="85" t="s">
+    <row r="2" spans="1:16" ht="15" thickBot="1"/>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B3" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B4" s="86"/>
-      <c r="C4" s="30" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="151"/>
+      <c r="K3" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="P3" s="110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B4" s="132"/>
+      <c r="C4" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="152" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="B5" s="27" t="s">
+      <c r="F4" s="155" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="111">
+        <v>2</v>
+      </c>
+      <c r="M4" s="111">
+        <f>F5*C9/F9</f>
+        <v>15.321052631578947</v>
+      </c>
+      <c r="N4" s="111">
+        <f>L4-M4</f>
+        <v>-13.321052631578947</v>
+      </c>
+      <c r="O4" s="111">
+        <f>N4^2</f>
+        <v>177.45044321329641</v>
+      </c>
+      <c r="P4" s="111">
+        <f>O4/M4</f>
+        <v>11.582131298703647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="149">
         <v>2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="149">
         <v>24</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="149">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="B6" s="26" t="s">
+      <c r="F5" s="154">
+        <f>SUM(C5:E5)</f>
+        <v>71</v>
+      </c>
+      <c r="K5" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="111">
+        <v>24</v>
+      </c>
+      <c r="M5" s="111">
+        <f>F6*D9/F9</f>
+        <v>26.873684210526317</v>
+      </c>
+      <c r="N5" s="111">
+        <f t="shared" ref="N5:N15" si="0">L5-M5</f>
+        <v>-2.8736842105263172</v>
+      </c>
+      <c r="O5" s="111">
+        <f t="shared" ref="O5:O15" si="1">N5^2</f>
+        <v>8.258060941828262</v>
+      </c>
+      <c r="P5" s="111">
+        <f t="shared" ref="P5:P15" si="2">O5/M5</f>
+        <v>0.30729173109035834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="149">
         <v>16</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="149">
         <v>28</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="149">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="B7" s="26" t="s">
+      <c r="F6" s="154">
+        <f t="shared" ref="F6:F8" si="3">SUM(C6:E6)</f>
+        <v>74</v>
+      </c>
+      <c r="K6" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="111">
+        <v>45</v>
+      </c>
+      <c r="M6" s="111">
+        <f>F7*E9/F9</f>
+        <v>16</v>
+      </c>
+      <c r="N6" s="111">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O6" s="111">
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+      <c r="P6" s="111">
+        <f t="shared" si="2"/>
+        <v>52.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="149">
         <v>18</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="149">
         <v>15</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="149">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B8" s="25" t="s">
+      <c r="F7" s="154">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="K7" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="111">
+        <v>16</v>
+      </c>
+      <c r="M7" s="111">
+        <f>F5*D9/F9</f>
+        <v>25.784210526315789</v>
+      </c>
+      <c r="N7" s="111">
+        <f t="shared" si="0"/>
+        <v>-9.784210526315789</v>
+      </c>
+      <c r="O7" s="111">
+        <f t="shared" si="1"/>
+        <v>95.730775623268684</v>
+      </c>
+      <c r="P7" s="111">
+        <f t="shared" si="2"/>
+        <v>3.7127673746521843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="149">
         <v>5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="149">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="149">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="43" t="s">
+      <c r="F8" s="154">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" s="111">
+        <v>28</v>
+      </c>
+      <c r="M8" s="111">
+        <f>F6*D9/F9</f>
+        <v>26.873684210526317</v>
+      </c>
+      <c r="N8" s="111">
+        <f t="shared" si="0"/>
+        <v>1.1263157894736828</v>
+      </c>
+      <c r="O8" s="111">
+        <f t="shared" si="1"/>
+        <v>1.2685872576177255</v>
+      </c>
+      <c r="P8" s="111">
+        <f t="shared" si="2"/>
+        <v>4.7205557960706586E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1">
+      <c r="B9" s="155" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="153">
+        <f>SUM(C5:C8)</f>
+        <v>41</v>
+      </c>
+      <c r="D9" s="153">
+        <f>SUM(D5:D8)</f>
+        <v>69</v>
+      </c>
+      <c r="E9" s="153">
+        <f>SUM(E5:E8)</f>
+        <v>80</v>
+      </c>
+      <c r="F9" s="99">
+        <f>SUM(C9:E9)</f>
+        <v>190</v>
+      </c>
+      <c r="K9" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="111">
+        <v>30</v>
+      </c>
+      <c r="M9" s="111">
+        <f>F6*E9/F9</f>
+        <v>31.157894736842106</v>
+      </c>
+      <c r="N9" s="111">
+        <f t="shared" si="0"/>
+        <v>-1.1578947368421062</v>
+      </c>
+      <c r="O9" s="111">
+        <f t="shared" si="1"/>
+        <v>1.3407202216066503</v>
+      </c>
+      <c r="P9" s="111">
+        <f t="shared" si="2"/>
+        <v>4.3029871977240466E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="K10" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="111">
+        <v>18</v>
+      </c>
+      <c r="M10" s="111">
+        <f>F7*C9/F9</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N10" s="111">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O10" s="111">
+        <f t="shared" si="1"/>
+        <v>96.04000000000002</v>
+      </c>
+      <c r="P10" s="111">
+        <f t="shared" si="2"/>
+        <v>11.712195121951224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="K11" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="111">
+        <v>15</v>
+      </c>
+      <c r="M11" s="111">
+        <f>F7*D9/F9</f>
+        <v>13.8</v>
+      </c>
+      <c r="N11" s="111">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="O11" s="111">
+        <f t="shared" si="1"/>
+        <v>1.4399999999999984</v>
+      </c>
+      <c r="P11" s="111">
+        <f t="shared" si="2"/>
+        <v>0.10434782608695641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="57" t="s">
+      <c r="K12" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="111">
+        <v>5</v>
+      </c>
+      <c r="M12" s="111">
+        <f>F7*E9/F9</f>
+        <v>16</v>
+      </c>
+      <c r="N12" s="111">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="O12" s="111">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="P12" s="111">
+        <f t="shared" si="2"/>
+        <v>7.5625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="53" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="57" t="s">
+      <c r="K13" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="111">
+        <v>5</v>
+      </c>
+      <c r="M13" s="111">
+        <f>F8*C9/F9</f>
+        <v>1.5105263157894737</v>
+      </c>
+      <c r="N13" s="111">
+        <f t="shared" si="0"/>
+        <v>3.4894736842105263</v>
+      </c>
+      <c r="O13" s="111">
+        <f t="shared" si="1"/>
+        <v>12.176426592797783</v>
+      </c>
+      <c r="P13" s="111">
+        <f t="shared" si="2"/>
+        <v>8.0610489638730964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="53" t="s">
         <v>77</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="K14" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="146">
+        <v>2</v>
+      </c>
+      <c r="M14" s="146">
+        <f>F8*D9/F9</f>
+        <v>2.5421052631578949</v>
+      </c>
+      <c r="N14" s="111">
+        <f t="shared" si="0"/>
+        <v>-0.54210526315789487</v>
+      </c>
+      <c r="O14" s="111">
+        <f t="shared" si="1"/>
+        <v>0.29387811634349043</v>
+      </c>
+      <c r="P14" s="111">
+        <f t="shared" si="2"/>
+        <v>0.11560422796120741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1">
+      <c r="K15" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" s="150">
+        <v>0</v>
+      </c>
+      <c r="M15" s="150">
+        <f>F8*E9/F9</f>
+        <v>2.9473684210526314</v>
+      </c>
+      <c r="N15" s="150">
+        <f t="shared" si="0"/>
+        <v>-2.9473684210526314</v>
+      </c>
+      <c r="O15" s="150">
+        <f t="shared" si="1"/>
+        <v>8.6869806094182813</v>
+      </c>
+      <c r="P15" s="150">
+        <f t="shared" si="2"/>
+        <v>2.9473684210526314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1">
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="148">
+        <f>SUM(P4:P15)</f>
+        <v>98.75799039530925</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="49"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SQRT(P16/(P16+F9))</f>
+        <v>0.58481582583155556</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="1">
+        <f>(SQRT((C17-1)/C17)+SQRT((C18-1)/C18))/2</f>
+        <v>0.84126099235608232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="1">
+        <f>C20/C21</f>
+        <v>0.69516574659391706</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="53" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5583,15 +6484,16 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -5608,49 +6510,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1"/>
     <row r="4" spans="1:14" ht="15" thickBot="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
-      <c r="B5" s="88"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="134"/>
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -5659,318 +6561,318 @@
       <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>30</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>15</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>45</v>
       </c>
-      <c r="F6" s="129">
+      <c r="F6" s="106">
         <f>SUM(C6:E6)</f>
         <v>90</v>
       </c>
-      <c r="I6" s="52"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>20</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>40</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>10</v>
       </c>
-      <c r="F7" s="129">
+      <c r="F7" s="106">
         <f t="shared" ref="F7:F8" si="0">SUM(C7:E7)</f>
         <v>70</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="101">
         <v>10</v>
       </c>
-      <c r="D8" s="125">
+      <c r="D8" s="102">
         <v>10</v>
       </c>
-      <c r="E8" s="126">
+      <c r="E8" s="103">
         <v>70</v>
       </c>
-      <c r="F8" s="130">
+      <c r="F8" s="107">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="I8" s="52"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="104">
         <f>SUM(C6:C8)</f>
         <v>60</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="104">
         <f>SUM(D6:D8)</f>
         <v>65</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="104">
         <f>SUM(E6:E8)</f>
         <v>125</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="105">
         <f>SUM(C9:E9)</f>
         <v>250</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="I9" s="52"/>
+      <c r="I9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
-      <c r="I10" s="52"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="133" t="s">
+      <c r="E11" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="110" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="I11" s="52"/>
+      <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="57"/>
-      <c r="B12" s="134" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="111">
         <v>30</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="111">
         <f>F6*C9/F9</f>
         <v>21.6</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="111">
         <f>C12-D12</f>
         <v>8.3999999999999986</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="111">
         <f>(E12)^2</f>
         <v>70.559999999999974</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="111">
         <f>(E12)^2/D12</f>
         <v>3.2666666666666653</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="111">
         <v>15</v>
       </c>
-      <c r="D13" s="134">
+      <c r="D13" s="111">
         <f>F7*D9/F9</f>
         <v>18.2</v>
       </c>
-      <c r="E13" s="134">
+      <c r="E13" s="111">
         <f t="shared" ref="E13:E20" si="1">C13-D13</f>
         <v>-3.1999999999999993</v>
       </c>
-      <c r="F13" s="134">
+      <c r="F13" s="111">
         <f t="shared" ref="F13:F20" si="2">(E13)^2</f>
         <v>10.239999999999995</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="111">
         <f t="shared" ref="G13:G20" si="3">(E13)^2/D13</f>
         <v>0.56263736263736241</v>
       </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="111">
         <v>45</v>
       </c>
-      <c r="D14" s="134">
+      <c r="D14" s="111">
         <f>F8*E9/F9</f>
         <v>45</v>
       </c>
-      <c r="E14" s="134">
+      <c r="E14" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="134">
+      <c r="F14" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G14" s="134">
+      <c r="G14" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="52"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="111">
         <v>20</v>
       </c>
-      <c r="D15" s="134">
+      <c r="D15" s="111">
         <f>F7*C9/F9</f>
         <v>16.8</v>
       </c>
-      <c r="E15" s="134">
+      <c r="E15" s="111">
         <f t="shared" si="1"/>
         <v>3.1999999999999993</v>
       </c>
-      <c r="F15" s="134">
+      <c r="F15" s="111">
         <f t="shared" si="2"/>
         <v>10.239999999999995</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="111">
         <f t="shared" si="3"/>
         <v>0.60952380952380925</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="111">
         <v>40</v>
       </c>
-      <c r="D16" s="134">
+      <c r="D16" s="111">
         <f>F7*D9/F9</f>
         <v>18.2</v>
       </c>
-      <c r="E16" s="134">
+      <c r="E16" s="111">
         <f t="shared" si="1"/>
         <v>21.8</v>
       </c>
-      <c r="F16" s="134">
+      <c r="F16" s="111">
         <f t="shared" si="2"/>
         <v>475.24</v>
       </c>
-      <c r="G16" s="134">
+      <c r="G16" s="111">
         <f t="shared" si="3"/>
         <v>26.112087912087915</v>
       </c>
-      <c r="J16" s="53"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="111">
         <v>10</v>
       </c>
-      <c r="D17" s="134">
+      <c r="D17" s="111">
         <f>F7*E9/F9</f>
         <v>35</v>
       </c>
-      <c r="E17" s="134">
+      <c r="E17" s="111">
         <f t="shared" si="1"/>
         <v>-25</v>
       </c>
-      <c r="F17" s="134">
+      <c r="F17" s="111">
         <f t="shared" si="2"/>
         <v>625</v>
       </c>
-      <c r="G17" s="134">
+      <c r="G17" s="111">
         <f t="shared" si="3"/>
         <v>17.857142857142858</v>
       </c>
-      <c r="J17" s="53"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="111">
         <v>10</v>
       </c>
-      <c r="D18" s="134">
+      <c r="D18" s="111">
         <f>F8*C9/F9</f>
         <v>21.6</v>
       </c>
-      <c r="E18" s="134">
+      <c r="E18" s="111">
         <f t="shared" si="1"/>
         <v>-11.600000000000001</v>
       </c>
-      <c r="F18" s="134">
+      <c r="F18" s="111">
         <f t="shared" si="2"/>
         <v>134.56000000000003</v>
       </c>
-      <c r="G18" s="134">
+      <c r="G18" s="111">
         <f t="shared" si="3"/>
         <v>6.2296296296296303</v>
       </c>
-      <c r="L18" s="52"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="111">
         <v>10</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D19" s="111">
         <f>F8*D9/F9</f>
         <v>23.4</v>
       </c>
-      <c r="E19" s="134">
+      <c r="E19" s="111">
         <f t="shared" si="1"/>
         <v>-13.399999999999999</v>
       </c>
-      <c r="F19" s="134">
+      <c r="F19" s="111">
         <f t="shared" si="2"/>
         <v>179.55999999999997</v>
       </c>
-      <c r="G19" s="134">
+      <c r="G19" s="111">
         <f t="shared" si="3"/>
         <v>7.6735042735042729</v>
       </c>
@@ -5998,49 +6900,49 @@
         <f t="shared" si="3"/>
         <v>13.888888888888889</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1">
-      <c r="B21" s="53"/>
-      <c r="G21" s="122">
+      <c r="B21" s="49"/>
+      <c r="G21" s="99">
         <f>SUM(G12:G20)</f>
         <v>76.200081400081402</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="53"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="2:12" ht="15">
-      <c r="E22" s="52"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="E23" s="52"/>
-      <c r="J23" s="53"/>
+      <c r="E23" s="48"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="53" t="s">
         <v>160</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="53"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="53" t="s">
         <v>158</v>
       </c>
       <c r="C25" s="1">
         <f>SQRT(G21/(G21+F9))</f>
         <v>0.48332102194577758</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="53" t="s">
         <v>161</v>
       </c>
       <c r="F25" s="1">
@@ -6048,29 +6950,29 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="J26" s="53"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="53" t="s">
         <v>159</v>
       </c>
       <c r="C27" s="1">
         <f>(SQRT((F24-1)/F24)+SQRT((F25-1)/F25))/2</f>
         <v>0.81649658092772603</v>
       </c>
-      <c r="J27" s="53"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="135">
+      <c r="C29" s="112">
         <f>C25/C27</f>
         <v>0.5919449428638327</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="53" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6086,7 +6988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
